--- a/Sufficient data/forecast_summary_B07Z9YBT3T.xlsx
+++ b/Sufficient data/forecast_summary_B07Z9YBT3T.xlsx
@@ -484,24 +484,24 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -519,24 +519,24 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -554,24 +554,24 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -589,24 +589,24 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -624,24 +624,24 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -659,24 +659,24 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -694,24 +694,24 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -729,24 +729,24 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -764,24 +764,24 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -799,24 +799,24 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -834,24 +834,24 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -869,24 +869,24 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -904,24 +904,24 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -939,24 +939,24 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -974,24 +974,24 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1009,24 +1009,24 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>GP-GSM2NE3100TNTD</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
